--- a/企画書/【チーム名】DB設計.xlsx
+++ b/企画書/【チーム名】DB設計.xlsx
@@ -5,30 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konno Aoi\Documents\国際情報工科自動車大学校\教科\システム開発Ⅰ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konno Aoi\Documents\国際情報工科自動車大学校\教科\システム開発Ⅰ\22310056-KonnoAoi\企画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFB1B9-D535-47D1-8D25-1939E02DD2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D32D26-AD48-45C9-B2B2-B934AA2FEAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="11950" windowHeight="10080" firstSheet="3" activeTab="4" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
   <sheets>
     <sheet name="DB設計テンプレ" sheetId="3" r:id="rId1"/>
     <sheet name="メイン(仮)" sheetId="21" r:id="rId2"/>
     <sheet name="役と翻(仮) " sheetId="22" r:id="rId3"/>
-    <sheet name="待ち方と符(仮)" sheetId="23" r:id="rId4"/>
-    <sheet name="生徒メンバー" sheetId="7" r:id="rId5"/>
-    <sheet name="教師メンバー" sheetId="5" r:id="rId6"/>
-    <sheet name="アカウント" sheetId="19" r:id="rId7"/>
-    <sheet name="決済(とりあえず放置)" sheetId="10" r:id="rId8"/>
-    <sheet name="作物" sheetId="9" r:id="rId9"/>
-    <sheet name="栽培作物" sheetId="17" r:id="rId10"/>
-    <sheet name="地域" sheetId="12" r:id="rId11"/>
-    <sheet name="授業プラン" sheetId="6" r:id="rId12"/>
-    <sheet name="口座情報" sheetId="11" r:id="rId13"/>
-    <sheet name="問い合わせ" sheetId="13" r:id="rId14"/>
-    <sheet name="問い合わせカテゴリー" sheetId="14" r:id="rId15"/>
-    <sheet name="FAQ" sheetId="15" r:id="rId16"/>
+    <sheet name="メンツと符(仮)" sheetId="23" r:id="rId4"/>
+    <sheet name="待ち方(仮)" sheetId="25" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId6"/>
+    <sheet name="生徒メンバー" sheetId="7" r:id="rId7"/>
+    <sheet name="教師メンバー" sheetId="5" r:id="rId8"/>
+    <sheet name="アカウント" sheetId="19" r:id="rId9"/>
+    <sheet name="決済(とりあえず放置)" sheetId="10" r:id="rId10"/>
+    <sheet name="作物" sheetId="9" r:id="rId11"/>
+    <sheet name="栽培作物" sheetId="17" r:id="rId12"/>
+    <sheet name="地域" sheetId="12" r:id="rId13"/>
+    <sheet name="授業プラン" sheetId="6" r:id="rId14"/>
+    <sheet name="口座情報" sheetId="11" r:id="rId15"/>
+    <sheet name="問い合わせ" sheetId="13" r:id="rId16"/>
+    <sheet name="問い合わせカテゴリー" sheetId="14" r:id="rId17"/>
+    <sheet name="FAQ" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="331">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1373,16 +1375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計翻数</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>machi_fu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1410,16 +1402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待ち方</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変わるかも</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -1427,10 +1409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>machi1_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自風判断</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
@@ -1524,14 +1502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>machi2_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machi3_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポン、チー、明カンをしているか</t>
     <rPh sb="6" eb="7">
       <t>アキラ</t>
@@ -1539,40 +1509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>machi4_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machi5_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machi6_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machi7_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machi8_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machi9_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上がり方</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鳴き</t>
   </si>
   <si>
@@ -1675,6 +1611,145 @@
     <rPh sb="18" eb="19">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agari_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naki_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jikaze_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kotsuchuchan_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kotsuyao_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kanchuchan_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kannyao_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>janto_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machi_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yaku_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役の名前</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mentu_junle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンツの区分</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順子、刻子、槓子、頭のターツの種類</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順子、刻子、槓子、頭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食い下がり（÷２）があるかどうか</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上がり番号</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_naki_down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hu_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>符数</t>
+    <rPh sb="0" eb="2">
+      <t>フスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻子</t>
+    <rPh sb="0" eb="1">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machi_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1767,7 +1842,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1777,6 +1852,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,7 +2037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2033,6 +2120,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2044,6 +2140,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2840,6 +2948,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1849E0D5-CD27-401F-8775-6F705D65C57F}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E84476-CA85-4D2F-8D72-3C50CEB1EC86}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3EB8AD-D691-40BB-89AC-D56DB525A5F1}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -3350,7 +4495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF98D2B4-FB8C-4242-AD28-0545D583FB66}">
   <dimension ref="A1:T17"/>
   <sheetViews>
@@ -3389,10 +4534,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3423,10 +4568,10 @@
       <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3868,7 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90D39C-D10E-4B3F-9ED8-3759F8E6A0D7}">
   <dimension ref="A1:T26"/>
   <sheetViews>
@@ -4619,7 +5764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11D85C1-2369-4E8D-BEF7-01D302817E5E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
@@ -5251,7 +6396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B6DA5E-27C5-43C1-88A5-D8E4A64E48DA}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -5776,7 +6921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22FC47-3CF8-4D8A-9D08-B4EE396465B7}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -5815,10 +6960,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5849,10 +6994,10 @@
       <c r="B2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -6283,7 +7428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EEE63F-533E-472F-9A43-2C9F00221C85}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -6798,525 +7943,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DDA12-847F-4EC8-B4E5-7B853E872394}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.08203125" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44323</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2187B5-9DD5-42A3-9E81-52A5295B075F}">
-  <dimension ref="A1:T15"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -7381,13 +8007,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7493,14 +8119,14 @@
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -7509,7 +8135,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>28</v>
@@ -7531,21 +8157,21 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -7571,20 +8197,22 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="O7" s="8" t="s">
         <v>41</v>
@@ -7609,21 +8237,23 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="F8" s="8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="L8" s="8"/>
       <c r="O8" s="8" t="s">
@@ -7828,12 +8458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D767DC71-878F-4923-B88B-A769926C0E9A}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2187B5-9DD5-42A3-9E81-52A5295B075F}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7896,13 +8526,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8008,22 +8638,20 @@
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>290</v>
-      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="O5" s="8" t="s">
         <v>27</v>
@@ -8048,21 +8676,21 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -8088,15 +8716,13 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>316</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -8126,20 +8752,22 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="O8" s="8" t="s">
         <v>48</v>
@@ -8163,16 +8791,10 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>312</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -8201,23 +8823,15 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
-        <v>317</v>
-      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="O10" s="8" t="s">
         <v>62</v>
@@ -8241,20 +8855,15 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="O11" s="8" t="s">
         <v>69</v>
@@ -8274,16 +8883,10 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -8304,16 +8907,10 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>276</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>316</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -8374,7 +8971,1143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D767DC71-878F-4923-B88B-A769926C0E9A}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="32"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F894A367-6282-4C38-9427-7217773B9A94}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="39"/>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="39"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="39"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="39"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB8AFD-34A2-403D-8AB8-35FC3A9C7DD9}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2B066C-0698-4AA4-B8DD-DA5B5059AADE}">
   <dimension ref="A1:T21"/>
   <sheetViews>
@@ -9071,7 +10804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CBA093-749C-4ECD-8871-28799DA9E84E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
@@ -9804,7 +11537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FE8449-F1C1-4082-9919-E99AE2468262}">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -10322,1043 +12055,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1849E0D5-CD27-401F-8775-6F705D65C57F}">
-  <dimension ref="A1:T15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.08203125" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44323</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E84476-CA85-4D2F-8D72-3C50CEB1EC86}">
-  <dimension ref="A1:T15"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.08203125" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44323</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
